--- a/ТКИ-341_Реверс_Инжиниринг.xlsx
+++ b/ТКИ-341_Реверс_Инжиниринг.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flash_a\Documents\GIT\Reverse_Engineering\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4EFF40-C37B-4BC1-B666-FAA6EE55066E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>ВЕДОМОСТЬ ПОСЕЩАЕМОСТИ ЗАНЯТИЙ СТУДЕНТАМИ ГРУППЫ ТКИ "Компьютерная безопасность" ИТТСУ РУТ (МИИТ)</t>
   </si>
@@ -188,19 +189,30 @@
   <si>
     <t>bulaniisergey@mail.ru</t>
   </si>
+  <si>
+    <t>2п</t>
+  </si>
+  <si>
+    <t>1п</t>
+  </si>
+  <si>
+    <t>Энтропия</t>
+  </si>
+  <si>
+    <t>Задача</t>
+  </si>
+  <si>
+    <t>С, С++</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,353 +233,16 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -590,253 +265,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -857,74 +290,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1182,90 +580,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="10.8888888888889"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="10.85546875"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:42">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:43" ht="14.45" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-    </row>
-    <row r="2" ht="27.6" customHeight="1" spans="1:42">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+    </row>
+    <row r="2" spans="1:43" ht="27.6" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="10">
         <v>46062</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="10">
+        <v>46065</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1274,9 +681,13 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -1295,19 +706,20 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="27.6" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1315,7 +727,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1345,29 +757,32 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="1"/>
-    </row>
-    <row r="4" spans="1:42">
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1397,29 +812,32 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="1"/>
-    </row>
-    <row r="5" spans="1:42">
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1449,29 +867,32 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="1"/>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1501,29 +922,32 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-      <c r="AP6" s="1"/>
-    </row>
-    <row r="7" spans="1:42">
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1553,29 +977,32 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="1"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:42">
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:43" ht="18" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1605,29 +1032,32 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="1"/>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="1"/>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1657,29 +1087,32 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="1"/>
-    </row>
-    <row r="10" spans="1:42">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="9">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1709,185 +1142,197 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="1"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:42">
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" ht="14.45" customHeight="1">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="1"/>
-    </row>
-    <row r="12" spans="1:42">
+      <c r="D11" s="9"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="13"/>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="1"/>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="D12" s="9"/>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="13"/>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="1"/>
-    </row>
-    <row r="14" spans="1:42">
+      <c r="D13" s="9"/>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="13"/>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1917,29 +1362,32 @@
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="1"/>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1969,29 +1417,32 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="1"/>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2021,29 +1472,32 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="1"/>
-    </row>
-    <row r="17" spans="1:42">
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="1"/>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2073,29 +1527,32 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="1"/>
-    </row>
-    <row r="18" spans="1:42">
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="1"/>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2125,29 +1582,32 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="1"/>
-    </row>
-    <row r="19" spans="1:42">
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="1"/>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2177,29 +1637,32 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="1"/>
-    </row>
-    <row r="20" spans="1:42">
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="1"/>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2229,29 +1692,32 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="1"/>
-    </row>
-    <row r="21" spans="1:42">
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="1"/>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>5</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2281,29 +1747,32 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="1"/>
-    </row>
-    <row r="22" spans="1:42">
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="1"/>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2333,29 +1802,32 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="1"/>
-    </row>
-    <row r="23" spans="1:42">
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="1"/>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>14</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2385,29 +1857,32 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="1"/>
-    </row>
-    <row r="24" spans="1:42">
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="1"/>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>15</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2437,29 +1912,32 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="1"/>
-    </row>
-    <row r="25" spans="1:42">
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="1"/>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2489,29 +1967,32 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="1"/>
-    </row>
-    <row r="26" spans="1:42">
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="1"/>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>16</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2541,29 +2022,32 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="1"/>
-    </row>
-    <row r="27" spans="1:42">
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="1"/>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2593,29 +2077,32 @@
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="1"/>
-    </row>
-    <row r="28" spans="1:42">
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="1"/>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2645,29 +2132,32 @@
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="1"/>
-    </row>
-    <row r="29" spans="1:42">
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="1"/>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>13</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2697,29 +2187,32 @@
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
-      <c r="AP29" s="1"/>
-    </row>
-    <row r="30" spans="1:42">
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="1"/>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>12</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2749,29 +2242,32 @@
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="1"/>
-    </row>
-    <row r="31" spans="1:42">
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="1"/>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2801,29 +2297,32 @@
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
-      <c r="AP31" s="1"/>
-    </row>
-    <row r="32" spans="1:42">
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="1"/>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>15</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2853,29 +2352,32 @@
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
-      <c r="AP32" s="1"/>
-    </row>
-    <row r="33" spans="1:42">
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="1"/>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="10">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="C33" s="9">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2905,29 +2407,32 @@
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
-      <c r="AP33" s="1"/>
-    </row>
-    <row r="34" spans="1:42">
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="1"/>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>10</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2957,29 +2462,32 @@
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
-      <c r="AP34" s="1"/>
-    </row>
-    <row r="35" spans="1:42">
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="1"/>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>11</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3009,11 +2517,12 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="1"/>
-    </row>
-    <row r="36" spans="3:42">
-      <c r="C36" s="10"/>
-      <c r="D36" s="2"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="1"/>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3021,7 +2530,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3051,23 +2560,27 @@
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
-      <c r="AP36" s="1"/>
-    </row>
-    <row r="37" spans="1:42">
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="1"/>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3097,13 +2610,22 @@
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="1"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="T11:T13"/>
     <mergeCell ref="U11:U13"/>
     <mergeCell ref="V11:V13"/>
     <mergeCell ref="W11:W13"/>
@@ -3118,82 +2640,72 @@
     <mergeCell ref="AF11:AF13"/>
     <mergeCell ref="AG11:AG13"/>
     <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-    </row>
-    <row r="2" ht="27.6" spans="1:42">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+    </row>
+    <row r="2" spans="1:42" ht="30">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3237,7 +2749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="27.6" spans="1:42">
+    <row r="3" spans="1:42" ht="45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3477,7 +2989,7 @@
       <c r="AO7" s="3"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" ht="55.2" spans="1:42">
+    <row r="8" spans="1:42" ht="60">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3622,142 +3134,142 @@
       <c r="AP10" s="1"/>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" s="2">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="1"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="13"/>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12" s="2"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="1"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="13"/>
     </row>
     <row r="13" spans="1:42">
-      <c r="A13" s="2"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="1"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="13"/>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="2">
@@ -4913,6 +4425,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
     <mergeCell ref="A1:AP1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:A13"/>
@@ -4929,35 +4468,7 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>